--- a/Project/Resultat/Analyse des resultatsV3.xlsx
+++ b/Project/Resultat/Analyse des resultatsV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/464c61f4079a7534/Documents/GitHub/RecSys/Project/Resultat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79F5690-4D59-49AA-87F7-25DFAA32C510}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A79F5690-4D59-49AA-87F7-25DFAA32C510}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{387D691E-4DCC-49D0-AD34-AE0303D4455C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="1" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="1" activeTab="4" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH1006" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2436,7 +2436,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2533,16 +2533,30 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5FA2CBE9-48F1-4F0A-BBC6-3BBD5EA8D9C0}" name="Table1313" displayName="Table1313" ref="H4:N9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5FA2CBE9-48F1-4F0A-BBC6-3BBD5EA8D9C0}" name="Table1313" displayName="Table1313" ref="H4:N10" totalsRowCount="1">
   <autoFilter ref="H4:N9" xr:uid="{7E3B5166-5BA5-4995-83D2-E13B5FC9F597}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0090C455-DBD3-44B1-BD2A-E3000652B3CD}" name="terme.terme"/>
-    <tableColumn id="2" xr3:uid="{2B6FC2F1-3B1E-4DCF-B588-5BEA0A745F61}" name="tf.idf"/>
-    <tableColumn id="3" xr3:uid="{D1DE3387-54BD-4CCD-8F3B-483379E96265}" name="log.entropy"/>
-    <tableColumn id="4" xr3:uid="{576A503C-7017-4188-B7BE-ECD61A1964E3}" name="lsa"/>
-    <tableColumn id="5" xr3:uid="{EBE0880C-1BED-4B16-A274-12631B376055}" name="lsa.ent"/>
-    <tableColumn id="6" xr3:uid="{9542A68C-6A25-4215-AF54-52C01CBE5F0D}" name="lsa.tfidf"/>
-    <tableColumn id="7" xr3:uid="{BC5A318F-B735-4595-9C19-91E14A931577}" name="Rang"/>
+    <tableColumn id="1" xr3:uid="{0090C455-DBD3-44B1-BD2A-E3000652B3CD}" name="terme.terme" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[terme.terme])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{2B6FC2F1-3B1E-4DCF-B588-5BEA0A745F61}" name="tf.idf" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[tf.idf])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D1DE3387-54BD-4CCD-8F3B-483379E96265}" name="log.entropy" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[log.entropy])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{576A503C-7017-4188-B7BE-ECD61A1964E3}" name="lsa" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[lsa])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EBE0880C-1BED-4B16-A274-12631B376055}" name="lsa.ent" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[lsa.ent])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9542A68C-6A25-4215-AF54-52C01CBE5F0D}" name="lsa.tfidf" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[lsa.tfidf])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BC5A318F-B735-4595-9C19-91E14A931577}" name="Rang" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1313[Rang])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2564,16 +2578,30 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60DBAC48-F4C6-4129-B87F-5C5A4C46AB4E}" name="Table13" displayName="Table13" ref="H4:N9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60DBAC48-F4C6-4129-B87F-5C5A4C46AB4E}" name="Table13" displayName="Table13" ref="H4:N10" totalsRowCount="1">
   <autoFilter ref="H4:N9" xr:uid="{D5AF45BE-0B29-4C41-BE05-EF2E62D6FD9A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{660D57DD-5A72-4DBA-88A0-52B6C2E3E4FC}" name="terme.terme"/>
-    <tableColumn id="2" xr3:uid="{2FE39CE9-EA4D-4E3E-B19B-E5413BF82645}" name="tf.idf"/>
-    <tableColumn id="3" xr3:uid="{0DC5F413-9C7A-4BA2-AC23-3F072C51F661}" name="log.entropy"/>
-    <tableColumn id="4" xr3:uid="{17404F96-00E3-4492-AFDA-CDBABF69C8B2}" name="lsa"/>
-    <tableColumn id="5" xr3:uid="{4C44B8C0-BEF7-453F-937A-0FBECA3D512C}" name="lsa.ent"/>
-    <tableColumn id="6" xr3:uid="{15B4A552-1B2A-4A8C-A217-C2E74C27BA62}" name="lsa.tfidf"/>
-    <tableColumn id="7" xr3:uid="{AF9B1A0F-A1EE-4ACD-BCFC-5D7B42983124}" name="Rang"/>
+    <tableColumn id="1" xr3:uid="{660D57DD-5A72-4DBA-88A0-52B6C2E3E4FC}" name="terme.terme" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[terme.terme])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{2FE39CE9-EA4D-4E3E-B19B-E5413BF82645}" name="tf.idf" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[tf.idf])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0DC5F413-9C7A-4BA2-AC23-3F072C51F661}" name="log.entropy" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[log.entropy])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{17404F96-00E3-4492-AFDA-CDBABF69C8B2}" name="lsa" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[lsa])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4C44B8C0-BEF7-453F-937A-0FBECA3D512C}" name="lsa.ent" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[lsa.ent])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{15B4A552-1B2A-4A8C-A217-C2E74C27BA62}" name="lsa.tfidf" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[lsa.tfidf])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{AF9B1A0F-A1EE-4ACD-BCFC-5D7B42983124}" name="Rang" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table13[Rang])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2702,16 +2730,30 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F9A4C189-2AD9-44D3-84BA-E75C21297D22}" name="Table1311" displayName="Table1311" ref="H4:N9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F9A4C189-2AD9-44D3-84BA-E75C21297D22}" name="Table1311" displayName="Table1311" ref="H4:N10" totalsRowCount="1">
   <autoFilter ref="H4:N9" xr:uid="{E6EF177C-C1D0-4122-B27A-1FC9A66FA76F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1103F947-D254-42A7-8A3E-D44DDA6B44B7}" name="terme.terme"/>
-    <tableColumn id="2" xr3:uid="{D1919D9E-3965-465C-82AC-DB09F0CA62B9}" name="tf.idf"/>
-    <tableColumn id="3" xr3:uid="{EF710F0B-618A-4ECB-879F-3BC1074C74B4}" name="log.entropy"/>
-    <tableColumn id="4" xr3:uid="{5710B80B-92C2-4BAB-AA9E-69DFA54E6D60}" name="lsa"/>
-    <tableColumn id="5" xr3:uid="{0841EE54-C268-47BE-B00D-3F98E6A66910}" name="lsa.ent"/>
-    <tableColumn id="6" xr3:uid="{538779F1-2E5E-434F-A505-19BF819E4EE5}" name="lsa.tfidf"/>
-    <tableColumn id="7" xr3:uid="{3EDD7EA4-25A4-4EB6-BDA2-87DB3123CA8B}" name="Rang"/>
+    <tableColumn id="1" xr3:uid="{1103F947-D254-42A7-8A3E-D44DDA6B44B7}" name="terme.terme" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[terme.terme])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D1919D9E-3965-465C-82AC-DB09F0CA62B9}" name="tf.idf" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[tf.idf])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EF710F0B-618A-4ECB-879F-3BC1074C74B4}" name="log.entropy" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[log.entropy])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5710B80B-92C2-4BAB-AA9E-69DFA54E6D60}" name="lsa" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[lsa])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{0841EE54-C268-47BE-B00D-3F98E6A66910}" name="lsa.ent" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[lsa.ent])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{538779F1-2E5E-434F-A505-19BF819E4EE5}" name="lsa.tfidf" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[lsa.tfidf])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3EDD7EA4-25A4-4EB6-BDA2-87DB3123CA8B}" name="Rang" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table1311[Rang])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3031,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6075CE3-C5DE-4132-B6B7-199C55931189}">
   <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3626,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD6A43-0763-4EC0-BB42-E304A873C144}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4410,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67507C4B-FE4A-4529-9CE9-3A2B1154733A}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,10 +4987,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E557E0-1F20-4119-BBDF-3D1851626748}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5215,6 +5257,36 @@
       </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>AVERAGE(Table1311[terme.terme])</f>
+        <v>4.2</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(Table1311[tf.idf])</f>
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(Table1311[log.entropy])</f>
+        <v>4.2</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE(Table1311[lsa])</f>
+        <v>3.6</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(Table1311[lsa.ent])</f>
+        <v>3.8</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(Table1311[lsa.tfidf])</f>
+        <v>3.6</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(Table1311[Rang])</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5235,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A00B65-D8E2-42FE-8A66-5E573459333B}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5508,6 +5580,36 @@
       </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>AVERAGE(Table1313[terme.terme])</f>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(Table1313[tf.idf])</f>
+        <v>3.6</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(Table1313[log.entropy])</f>
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE(Table1313[lsa])</f>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(Table1313[lsa.ent])</f>
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(Table1313[lsa.tfidf])</f>
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(Table1313[Rang])</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5530,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345D38B0-4F1D-45F0-ABD1-C29168900DC4}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5809,6 +5911,36 @@
       </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>AVERAGE(Table13[terme.terme])</f>
+        <v>3.6</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(Table13[tf.idf])</f>
+        <v>2.4</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(Table13[log.entropy])</f>
+        <v>3.6</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE(Table13[lsa])</f>
+        <v>2.6</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(Table13[lsa.ent])</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(Table13[lsa.tfidf])</f>
+        <v>4.2</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(Table13[Rang])</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -9795,7 +9927,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
